--- a/fromWill/2_2020_Oct23_seqs/README_JYnotes.xlsx
+++ b/fromWill/2_2020_Oct23_seqs/README_JYnotes.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/malik_h/user/jayoung/miscMalikLab/domesticated_gags_BlakeWiedenheft/fromWill/1_2020_Oct23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/malik_h/user/jayoung/miscMalikLab/domesticated_capsid/fromWill/2_2020_Oct23_seqs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468BA04E-E344-AC4A-A8A9-71CF4FED975A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D0A29-8F9E-7646-8DA6-1A670C7C365E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="600" windowWidth="39040" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,9 +75,6 @@
     <t>7396 seqs unaligned</t>
   </si>
   <si>
-    <t>one column, just accessions, 59 entries plus header</t>
-  </si>
-  <si>
     <t>two columns, seq ID and source (repbase or refseq), 45 entries plus header</t>
   </si>
   <si>
@@ -74,6 +82,9 @@
   </si>
   <si>
     <t>file.name</t>
+  </si>
+  <si>
+    <t>one column, just accessions, 59 entries plus header (some redundant, 46 unique accessions)</t>
   </si>
 </sst>
 </file>
@@ -916,20 +927,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -968,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
